--- a/Challenge Brévenne 2025 - HAUTE RIVOIRE.xlsx
+++ b/Challenge Brévenne 2025 - HAUTE RIVOIRE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matthieu\OneDrive - ISDEA\Documents\_Projets\Gala\challenge brévenne\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D620FC8-D5DB-45D0-8412-DF26AE18E6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40903792-D002-416A-A0FD-0F0FE586E4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="705" windowWidth="25290" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -602,7 +602,7 @@
   <dimension ref="A1:K186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection sqref="A1:XFD1046705"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,515 +765,587 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F6">
-        <v>15.05</v>
+        <v>19.2</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-      <c r="J6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>6.05</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F7">
-        <v>16.600000000000001</v>
+        <v>19.55</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>4</v>
-      </c>
-      <c r="J7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>7.6</v>
+        <v>9.5500000000000007</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F8">
-        <v>15.95</v>
+        <v>16.649999999999999</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-      <c r="J8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>7.95</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F9">
-        <v>16.5</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9">
-        <v>7</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
       <c r="K9">
-        <v>9.5</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F10">
-        <v>9.6</v>
+        <v>17.850000000000001</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>8.85</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="G11">
         <v>10</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>8.35</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F12">
-        <v>9.5</v>
+        <v>18.2</v>
       </c>
       <c r="G12">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="F13">
-        <v>9.5</v>
+        <v>16.649999999999999</v>
       </c>
       <c r="G13">
         <v>10</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>6.65</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F14">
-        <v>9.8000000000000007</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="G14">
         <v>10</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>9.9</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="F15">
-        <v>9.3000000000000007</v>
+        <v>18.850000000000001</v>
       </c>
       <c r="G15">
         <v>10</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>8.85</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F16">
-        <v>9.5</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="G16">
         <v>10</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>9.6</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="F17">
-        <v>10</v>
+        <v>19.7</v>
       </c>
       <c r="G17">
         <v>10</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F18">
+        <v>19.7</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="K18">
         <v>9.6999999999999993</v>
-      </c>
-      <c r="G18">
-        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="F19">
-        <v>8.5</v>
+        <v>19</v>
       </c>
       <c r="G19">
         <v>10</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F20">
-        <v>8.5</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="G20">
         <v>10</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>9.6</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F21">
-        <v>9.5</v>
+        <v>18.850000000000001</v>
       </c>
       <c r="G21">
         <v>10</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>8.85</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F22">
-        <v>9.5</v>
+        <v>19.75</v>
       </c>
       <c r="G22">
         <v>10</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>9.75</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F23">
-        <v>9.75</v>
+        <v>18.649999999999999</v>
       </c>
       <c r="G23">
         <v>10</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>8.65</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F24">
-        <v>9.5</v>
+        <v>19.2</v>
       </c>
       <c r="G24">
         <v>10</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E25" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F25">
+        <v>18.7</v>
+      </c>
+      <c r="G25">
         <v>9</v>
       </c>
-      <c r="G25">
-        <v>10</v>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -1282,33 +1354,33 @@
         <v>21</v>
       </c>
       <c r="D26" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E26" t="s">
         <v>23</v>
       </c>
       <c r="F26">
-        <v>14.45</v>
+        <v>17.7</v>
       </c>
       <c r="G26">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K26">
-        <v>7.45</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
         <v>20</v>
@@ -1317,33 +1389,33 @@
         <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E27" t="s">
         <v>24</v>
       </c>
       <c r="F27">
-        <v>16.8</v>
+        <v>15.75</v>
       </c>
       <c r="G27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27">
         <v>4</v>
       </c>
-      <c r="J27">
-        <v>5</v>
-      </c>
       <c r="K27">
-        <v>7.8</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
@@ -1352,19 +1424,19 @@
         <v>21</v>
       </c>
       <c r="D28" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E28" t="s">
         <v>25</v>
       </c>
       <c r="F28">
-        <v>16.399999999999999</v>
+        <v>17.3</v>
       </c>
       <c r="G28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <v>3</v>
@@ -1373,12 +1445,12 @@
         <v>5</v>
       </c>
       <c r="K28">
-        <v>8.4</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
         <v>20</v>
@@ -1387,22 +1459,22 @@
         <v>21</v>
       </c>
       <c r="D29" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E29" t="s">
         <v>26</v>
       </c>
       <c r="F29">
-        <v>16.75</v>
+        <v>19.25</v>
       </c>
       <c r="G29">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -1413,186 +1485,282 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D30" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E30" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F30">
-        <v>9.9</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="G30">
         <v>10</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>4</v>
+      </c>
+      <c r="J30">
+        <v>5</v>
+      </c>
+      <c r="K30">
+        <v>8.35</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D31" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E31" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F31">
-        <v>9.5</v>
+        <v>18.25</v>
       </c>
       <c r="G31">
         <v>10</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>4</v>
+      </c>
+      <c r="J31">
+        <v>5</v>
+      </c>
+      <c r="K31">
+        <v>8.25</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D32" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F32">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G32">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
+      </c>
+      <c r="J32">
+        <v>5</v>
+      </c>
+      <c r="K32">
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D33" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E33" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F33">
-        <v>9</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="G33">
-        <v>10</v>
+        <v>10.5</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>10.5</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>9.1</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D34" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="E34" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F34">
-        <v>9.5</v>
+        <v>17.7</v>
       </c>
       <c r="G34">
         <v>10</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>4</v>
+      </c>
+      <c r="J34">
+        <v>5</v>
+      </c>
+      <c r="K34">
+        <v>7.7</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D35" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F35">
-        <v>9.5</v>
+        <v>17.5</v>
       </c>
       <c r="G35">
         <v>10</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>4</v>
+      </c>
+      <c r="J35">
+        <v>5</v>
+      </c>
+      <c r="K35">
+        <v>7.5</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D36" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="E36" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F36">
-        <v>9.5</v>
+        <v>17.45</v>
       </c>
       <c r="G36">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+      <c r="J36">
+        <v>5</v>
+      </c>
+      <c r="K36">
+        <v>8.4499999999999993</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D37" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="E37" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F37">
-        <v>10</v>
+        <v>19.2</v>
       </c>
       <c r="G37">
-        <v>10</v>
+        <v>9.5</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>9.5</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -1606,13 +1774,13 @@
         <v>21</v>
       </c>
       <c r="D38" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E38" t="s">
         <v>23</v>
       </c>
       <c r="F38">
-        <v>17.7</v>
+        <v>16.649999999999999</v>
       </c>
       <c r="G38">
         <v>9</v>
@@ -1627,7 +1795,7 @@
         <v>5</v>
       </c>
       <c r="K38">
-        <v>8.6999999999999993</v>
+        <v>7.65</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -1641,28 +1809,28 @@
         <v>21</v>
       </c>
       <c r="D39" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E39" t="s">
         <v>24</v>
       </c>
       <c r="F39">
-        <v>15.75</v>
+        <v>16.3</v>
       </c>
       <c r="G39">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K39">
-        <v>7.75</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -1676,28 +1844,28 @@
         <v>21</v>
       </c>
       <c r="D40" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E40" t="s">
         <v>25</v>
       </c>
       <c r="F40">
-        <v>17.3</v>
+        <v>15.2</v>
       </c>
       <c r="G40">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J40">
         <v>5</v>
       </c>
       <c r="K40">
-        <v>8.3000000000000007</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -1711,308 +1879,308 @@
         <v>21</v>
       </c>
       <c r="D41" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E41" t="s">
         <v>26</v>
       </c>
       <c r="F41">
-        <v>19.25</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="G41">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41">
-        <v>9.75</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
         <v>20</v>
       </c>
       <c r="C42" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="D42" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="E42" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F42">
-        <v>19.649999999999999</v>
+        <v>17.95</v>
       </c>
       <c r="G42">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K42">
-        <v>9.65</v>
+        <v>8.9499999999999993</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
         <v>20</v>
       </c>
       <c r="C43" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="D43" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="E43" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F43">
-        <v>10.95</v>
+        <v>17.25</v>
       </c>
       <c r="G43">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J43">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K43">
-        <v>4.95</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>20</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="D44" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="E44" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F44">
-        <v>15.35</v>
+        <v>17.7</v>
       </c>
       <c r="G44">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
         <v>3</v>
       </c>
       <c r="J44">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K44">
-        <v>8.35</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
         <v>20</v>
       </c>
       <c r="C45" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="D45" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="E45" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F45">
-        <v>17.95</v>
+        <v>19</v>
       </c>
       <c r="G45">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45">
-        <v>4</v>
+        <v>9.5</v>
       </c>
       <c r="J45">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K45">
-        <v>8.9499999999999993</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B46" t="s">
         <v>20</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D46" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="E46" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F46">
-        <v>19</v>
+        <v>15.05</v>
       </c>
       <c r="G46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H46">
         <v>0</v>
       </c>
       <c r="I46">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K46">
-        <v>9</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B47" t="s">
         <v>20</v>
       </c>
       <c r="C47" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D47" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="E47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F47">
-        <v>16.850000000000001</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="G47">
         <v>9</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J47">
         <v>5</v>
       </c>
       <c r="K47">
-        <v>7.85</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B48" t="s">
         <v>20</v>
       </c>
       <c r="C48" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D48" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="E48" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F48">
-        <v>17.649999999999999</v>
+        <v>15.95</v>
       </c>
       <c r="G48">
         <v>8</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>3</v>
       </c>
       <c r="J48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K48">
-        <v>9.65</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B49" t="s">
         <v>20</v>
       </c>
       <c r="C49" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D49" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="E49" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F49">
-        <v>18.350000000000001</v>
+        <v>16.5</v>
       </c>
       <c r="G49">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J49">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K49">
-        <v>8.35</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -2026,28 +2194,28 @@
         <v>21</v>
       </c>
       <c r="D50" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E50" t="s">
         <v>23</v>
       </c>
       <c r="F50">
-        <v>16.350000000000001</v>
+        <v>14.45</v>
       </c>
       <c r="G50">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
       <c r="I50">
+        <v>3</v>
+      </c>
+      <c r="J50">
         <v>4</v>
       </c>
-      <c r="J50">
-        <v>5</v>
-      </c>
       <c r="K50">
-        <v>7.35</v>
+        <v>7.45</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -2061,13 +2229,13 @@
         <v>21</v>
       </c>
       <c r="D51" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E51" t="s">
         <v>24</v>
       </c>
       <c r="F51">
-        <v>16.75</v>
+        <v>16.8</v>
       </c>
       <c r="G51">
         <v>9</v>
@@ -2082,7 +2250,7 @@
         <v>5</v>
       </c>
       <c r="K51">
-        <v>7.75</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -2096,22 +2264,22 @@
         <v>21</v>
       </c>
       <c r="D52" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E52" t="s">
         <v>25</v>
       </c>
       <c r="F52">
-        <v>15.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="G52">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H52">
         <v>0</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J52">
         <v>5</v>
@@ -2131,33 +2299,33 @@
         <v>21</v>
       </c>
       <c r="D53" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E53" t="s">
         <v>26</v>
       </c>
       <c r="F53">
-        <v>18.7</v>
+        <v>16.75</v>
       </c>
       <c r="G53">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
       <c r="K53">
-        <v>9.6999999999999993</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B54" t="s">
         <v>20</v>
@@ -2166,19 +2334,19 @@
         <v>21</v>
       </c>
       <c r="D54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E54" t="s">
         <v>23</v>
       </c>
       <c r="F54">
-        <v>18.350000000000001</v>
+        <v>16.350000000000001</v>
       </c>
       <c r="G54">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <v>4</v>
@@ -2187,12 +2355,12 @@
         <v>5</v>
       </c>
       <c r="K54">
-        <v>8.35</v>
+        <v>7.35</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B55" t="s">
         <v>20</v>
@@ -2201,19 +2369,19 @@
         <v>21</v>
       </c>
       <c r="D55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E55" t="s">
         <v>24</v>
       </c>
       <c r="F55">
-        <v>18.25</v>
+        <v>16.75</v>
       </c>
       <c r="G55">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55">
         <v>4</v>
@@ -2222,12 +2390,12 @@
         <v>5</v>
       </c>
       <c r="K55">
-        <v>8.25</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B56" t="s">
         <v>20</v>
@@ -2236,33 +2404,33 @@
         <v>21</v>
       </c>
       <c r="D56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E56" t="s">
         <v>25</v>
       </c>
       <c r="F56">
-        <v>18</v>
+        <v>15.4</v>
       </c>
       <c r="G56">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J56">
         <v>5</v>
       </c>
       <c r="K56">
-        <v>9</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B57" t="s">
         <v>20</v>
@@ -2271,86 +2439,86 @@
         <v>21</v>
       </c>
       <c r="D57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E57" t="s">
         <v>26</v>
       </c>
       <c r="F57">
-        <v>19.600000000000001</v>
+        <v>18.7</v>
       </c>
       <c r="G57">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="H57">
         <v>0</v>
       </c>
       <c r="I57">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="J57">
         <v>0</v>
       </c>
       <c r="K57">
-        <v>9.1</v>
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B58" t="s">
         <v>20</v>
       </c>
       <c r="C58" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="D58" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E58" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F58">
-        <v>19.3</v>
+        <v>16.350000000000001</v>
       </c>
       <c r="G58">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
       <c r="I58">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K58">
-        <v>9.3000000000000007</v>
+        <v>8.35</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B59" t="s">
         <v>20</v>
       </c>
       <c r="C59" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="D59" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E59" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F59">
-        <v>14.55</v>
+        <v>15.65</v>
       </c>
       <c r="G59">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -2359,36 +2527,36 @@
         <v>4</v>
       </c>
       <c r="J59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K59">
-        <v>6.55</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B60" t="s">
         <v>20</v>
       </c>
       <c r="C60" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="D60" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F60">
-        <v>18.399999999999999</v>
+        <v>16.95</v>
       </c>
       <c r="G60">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60">
         <v>4</v>
@@ -2397,226 +2565,322 @@
         <v>5</v>
       </c>
       <c r="K60">
-        <v>8.4</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B61" t="s">
         <v>20</v>
       </c>
       <c r="C61" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="D61" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E61" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F61">
-        <v>16.100000000000001</v>
+        <v>16.149999999999999</v>
       </c>
       <c r="G61">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H61">
         <v>0</v>
       </c>
       <c r="I61">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J61">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K61">
-        <v>8.1</v>
+        <v>9.15</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B62" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D62" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E62" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F62">
-        <v>8.75</v>
+        <v>16.05</v>
       </c>
       <c r="G62">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>4</v>
+      </c>
+      <c r="J62">
+        <v>5</v>
+      </c>
+      <c r="K62">
+        <v>7.05</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B63" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D63" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E63" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F63">
-        <v>9.5</v>
+        <v>16.55</v>
       </c>
       <c r="G63">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>4</v>
+      </c>
+      <c r="J63">
+        <v>5</v>
+      </c>
+      <c r="K63">
+        <v>7.55</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B64" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C64" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D64" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E64" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F64">
+        <v>17.5</v>
+      </c>
+      <c r="G64">
+        <v>9</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>4</v>
+      </c>
+      <c r="J64">
+        <v>5</v>
+      </c>
+      <c r="K64">
         <v>8.5</v>
-      </c>
-      <c r="G64">
-        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B65" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D65" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F65">
-        <v>9</v>
+        <v>16.649999999999999</v>
       </c>
       <c r="G65">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>7</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>9.65</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B66" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D66" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E66" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F66">
-        <v>7</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="G66">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>4</v>
+      </c>
+      <c r="J66">
+        <v>5</v>
+      </c>
+      <c r="K66">
+        <v>7.9</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B67" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D67" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E67" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F67">
-        <v>8</v>
+        <v>16.75</v>
       </c>
       <c r="G67">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>4</v>
+      </c>
+      <c r="J67">
+        <v>5</v>
+      </c>
+      <c r="K67">
+        <v>7.75</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B68" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D68" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E68" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F68">
-        <v>9.5</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="G68">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>4</v>
+      </c>
+      <c r="J68">
+        <v>5</v>
+      </c>
+      <c r="K68">
+        <v>8.4</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B69" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D69" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F69">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="G69">
         <v>9</v>
       </c>
-      <c r="G69">
-        <v>10</v>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>9</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>9.6</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -2761,98 +3025,98 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B74" t="s">
         <v>20</v>
       </c>
       <c r="C74" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D74" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E74" t="s">
         <v>26</v>
       </c>
       <c r="F74">
-        <v>19.5</v>
+        <v>17.8</v>
       </c>
       <c r="G74">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="H74">
         <v>0</v>
       </c>
       <c r="I74">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="J74">
         <v>0</v>
       </c>
       <c r="K74">
-        <v>9.5</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B75" t="s">
         <v>20</v>
       </c>
       <c r="C75" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D75" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E75" t="s">
         <v>23</v>
       </c>
       <c r="F75">
-        <v>15.95</v>
+        <v>17.5</v>
       </c>
       <c r="G75">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J75">
         <v>5</v>
       </c>
       <c r="K75">
-        <v>7.95</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B76" t="s">
         <v>20</v>
       </c>
       <c r="C76" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D76" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E76" t="s">
         <v>24</v>
       </c>
       <c r="F76">
-        <v>19.7</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="G76">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>4</v>
@@ -2861,33 +3125,33 @@
         <v>5</v>
       </c>
       <c r="K76">
-        <v>9.6999999999999993</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B77" t="s">
         <v>20</v>
       </c>
       <c r="C77" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D77" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E77" t="s">
         <v>25</v>
       </c>
       <c r="F77">
-        <v>18.399999999999999</v>
+        <v>18</v>
       </c>
       <c r="G77">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77">
         <v>4</v>
@@ -2896,68 +3160,68 @@
         <v>5</v>
       </c>
       <c r="K77">
-        <v>8.4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="B78" t="s">
         <v>20</v>
       </c>
       <c r="C78" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="D78" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="E78" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F78">
-        <v>16.350000000000001</v>
+        <v>18.850000000000001</v>
       </c>
       <c r="G78">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
-        <v>4</v>
+        <v>9.5</v>
       </c>
       <c r="J78">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K78">
-        <v>8.35</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="B79" t="s">
         <v>20</v>
       </c>
       <c r="C79" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="D79" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="E79" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F79">
-        <v>15.65</v>
+        <v>16.649999999999999</v>
       </c>
       <c r="G79">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79">
         <v>4</v>
@@ -2971,28 +3235,28 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="B80" t="s">
         <v>20</v>
       </c>
       <c r="C80" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="D80" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F80">
-        <v>16.95</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="G80">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80">
         <v>4</v>
@@ -3001,1252 +3265,1276 @@
         <v>5</v>
       </c>
       <c r="K80">
-        <v>7.95</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="B81" t="s">
         <v>20</v>
       </c>
       <c r="C81" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="D81" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="E81" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F81">
-        <v>16.149999999999999</v>
+        <v>18.649999999999999</v>
       </c>
       <c r="G81">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K81">
-        <v>9.15</v>
+        <v>8.65</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B82" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C82" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D82" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E82" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F82">
-        <v>9.8000000000000007</v>
+        <v>19</v>
       </c>
       <c r="G82">
         <v>10</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>10</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B83" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C83" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D83" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E83" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F83">
-        <v>6</v>
+        <v>16.850000000000001</v>
       </c>
       <c r="G83">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>3</v>
+      </c>
+      <c r="J83">
+        <v>5</v>
+      </c>
+      <c r="K83">
+        <v>7.85</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B84" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C84" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D84" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E84" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F84">
-        <v>9</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="G84">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>3</v>
+      </c>
+      <c r="J84">
+        <v>4</v>
+      </c>
+      <c r="K84">
+        <v>9.65</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B85" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C85" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D85" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E85" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F85">
-        <v>8.5</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="G85">
         <v>10</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <v>4</v>
+      </c>
+      <c r="J85">
+        <v>5</v>
+      </c>
+      <c r="K85">
+        <v>8.35</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B86" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C86" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D86" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E86" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F86">
+        <v>19.5</v>
+      </c>
+      <c r="G86">
+        <v>10</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>10</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
         <v>9.5</v>
-      </c>
-      <c r="G86">
-        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B87" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C87" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D87" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E87" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F87">
-        <v>9.25</v>
+        <v>15.95</v>
       </c>
       <c r="G87">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>3</v>
+      </c>
+      <c r="J87">
+        <v>5</v>
+      </c>
+      <c r="K87">
+        <v>7.95</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B88" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C88" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D88" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E88" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F88">
-        <v>9.5</v>
+        <v>19.7</v>
       </c>
       <c r="G88">
         <v>10</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>4</v>
+      </c>
+      <c r="J88">
+        <v>5</v>
+      </c>
+      <c r="K88">
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B89" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C89" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D89" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E89" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F89">
-        <v>8</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="G89">
         <v>10</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89">
+        <v>4</v>
+      </c>
+      <c r="J89">
+        <v>5</v>
+      </c>
+      <c r="K89">
+        <v>8.4</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B90" t="s">
         <v>20</v>
       </c>
       <c r="C90" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D90" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E90" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F90">
-        <v>17.7</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="G90">
         <v>10</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J90">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K90">
-        <v>7.7</v>
+        <v>8.35</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B91" t="s">
         <v>20</v>
       </c>
       <c r="C91" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D91" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E91" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F91">
-        <v>17.5</v>
+        <v>15.85</v>
       </c>
       <c r="G91">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J91">
         <v>5</v>
       </c>
       <c r="K91">
-        <v>7.5</v>
+        <v>7.85</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B92" t="s">
         <v>20</v>
       </c>
       <c r="C92" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D92" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E92" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F92">
-        <v>17.45</v>
+        <v>19.3</v>
       </c>
       <c r="G92">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H92">
         <v>1</v>
       </c>
       <c r="I92">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J92">
         <v>5</v>
       </c>
       <c r="K92">
-        <v>8.4499999999999993</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B93" t="s">
         <v>20</v>
       </c>
       <c r="C93" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D93" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E93" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F93">
-        <v>19.2</v>
+        <v>18.3</v>
       </c>
       <c r="G93">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="J93">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K93">
-        <v>9.6999999999999993</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B94" t="s">
         <v>20</v>
       </c>
       <c r="C94" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D94" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E94" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F94">
-        <v>16.649999999999999</v>
+        <v>19.05</v>
       </c>
       <c r="G94">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H94">
         <v>0</v>
       </c>
       <c r="I94">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J94">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K94">
-        <v>7.65</v>
+        <v>9.0500000000000007</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B95" t="s">
         <v>20</v>
       </c>
       <c r="C95" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D95" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E95" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F95">
-        <v>16.3</v>
+        <v>16.350000000000001</v>
       </c>
       <c r="G95">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H95">
         <v>0</v>
       </c>
       <c r="I95">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J95">
         <v>5</v>
       </c>
       <c r="K95">
-        <v>7.3</v>
+        <v>8.35</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B96" t="s">
         <v>20</v>
       </c>
       <c r="C96" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D96" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E96" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F96">
-        <v>15.2</v>
+        <v>19</v>
       </c>
       <c r="G96">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J96">
         <v>5</v>
       </c>
       <c r="K96">
-        <v>8.1999999999999993</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B97" t="s">
         <v>20</v>
       </c>
       <c r="C97" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D97" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E97" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F97">
-        <v>16.899999999999999</v>
+        <v>18.2</v>
       </c>
       <c r="G97">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="J97">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K97">
-        <v>9.4</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B98" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C98" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D98" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E98" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F98">
-        <v>9.5</v>
+        <v>19.649999999999999</v>
       </c>
       <c r="G98">
         <v>10</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>10</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>9.65</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B99" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C99" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D99" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E99" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F99">
-        <v>8.5</v>
+        <v>10.95</v>
       </c>
       <c r="G99">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>3</v>
+      </c>
+      <c r="J99">
+        <v>3</v>
+      </c>
+      <c r="K99">
+        <v>4.95</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B100" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C100" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D100" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E100" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F100">
-        <v>8.5</v>
+        <v>15.35</v>
       </c>
       <c r="G100">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>3</v>
+      </c>
+      <c r="J100">
+        <v>4</v>
+      </c>
+      <c r="K100">
+        <v>8.35</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B101" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C101" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D101" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E101" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F101">
-        <v>10</v>
+        <v>17.95</v>
       </c>
       <c r="G101">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>4</v>
+      </c>
+      <c r="J101">
+        <v>5</v>
+      </c>
+      <c r="K101">
+        <v>8.9499999999999993</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B102" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C102" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D102" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E102" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F102">
-        <v>10</v>
+        <v>19.3</v>
       </c>
       <c r="G102">
         <v>10</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>10</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B103" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C103" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D103" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E103" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F103">
-        <v>9.25</v>
+        <v>14.55</v>
       </c>
       <c r="G103">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>4</v>
+      </c>
+      <c r="J103">
+        <v>4</v>
+      </c>
+      <c r="K103">
+        <v>6.55</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B104" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C104" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D104" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E104" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F104">
-        <v>9.5</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="G104">
         <v>10</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="I104">
+        <v>4</v>
+      </c>
+      <c r="J104">
+        <v>5</v>
+      </c>
+      <c r="K104">
+        <v>8.4</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B105" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C105" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D105" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E105" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F105">
-        <v>8.5</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="G105">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>3</v>
+      </c>
+      <c r="J105">
+        <v>5</v>
+      </c>
+      <c r="K105">
+        <v>8.1</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B106" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C106" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D106" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="E106" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F106">
-        <v>16.05</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="G106">
-        <v>9</v>
-      </c>
-      <c r="H106">
-        <v>0</v>
-      </c>
-      <c r="I106">
-        <v>4</v>
-      </c>
-      <c r="J106">
-        <v>5</v>
-      </c>
-      <c r="K106">
-        <v>7.05</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B107" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C107" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D107" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="E107" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F107">
-        <v>16.55</v>
+        <v>8.5</v>
       </c>
       <c r="G107">
-        <v>9</v>
-      </c>
-      <c r="H107">
-        <v>0</v>
-      </c>
-      <c r="I107">
-        <v>4</v>
-      </c>
-      <c r="J107">
-        <v>5</v>
-      </c>
-      <c r="K107">
-        <v>7.55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B108" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C108" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D108" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="E108" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F108">
-        <v>17.5</v>
+        <v>8.5</v>
       </c>
       <c r="G108">
-        <v>9</v>
-      </c>
-      <c r="H108">
-        <v>0</v>
-      </c>
-      <c r="I108">
-        <v>4</v>
-      </c>
-      <c r="J108">
-        <v>5</v>
-      </c>
-      <c r="K108">
-        <v>8.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B109" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C109" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D109" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="E109" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F109">
-        <v>16.649999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="G109">
-        <v>7</v>
-      </c>
-      <c r="H109">
-        <v>0</v>
-      </c>
-      <c r="I109">
-        <v>7</v>
-      </c>
-      <c r="J109">
-        <v>0</v>
-      </c>
-      <c r="K109">
-        <v>9.65</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B110" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C110" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D110" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="E110" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F110">
-        <v>19.2</v>
+        <v>9.5</v>
       </c>
       <c r="G110">
         <v>10</v>
-      </c>
-      <c r="H110">
-        <v>1</v>
-      </c>
-      <c r="K110">
-        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B111" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C111" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D111" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="E111" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F111">
-        <v>19.55</v>
+        <v>9.75</v>
       </c>
       <c r="G111">
         <v>10</v>
-      </c>
-      <c r="H111">
-        <v>1</v>
-      </c>
-      <c r="K111">
-        <v>9.5500000000000007</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B112" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C112" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D112" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="E112" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="F112">
-        <v>16.649999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="G112">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>39</v>
+      </c>
+      <c r="B113" t="s">
+        <v>28</v>
+      </c>
+      <c r="C113" t="s">
+        <v>29</v>
+      </c>
+      <c r="D113" t="s">
+        <v>40</v>
+      </c>
+      <c r="E113" t="s">
+        <v>38</v>
+      </c>
+      <c r="F113">
+        <v>9</v>
+      </c>
+      <c r="G113">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>39</v>
+      </c>
+      <c r="B114" t="s">
+        <v>28</v>
+      </c>
+      <c r="C114" t="s">
+        <v>29</v>
+      </c>
+      <c r="D114" t="s">
+        <v>60</v>
+      </c>
+      <c r="E114" t="s">
+        <v>31</v>
+      </c>
+      <c r="F114">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G114">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>39</v>
+      </c>
+      <c r="B115" t="s">
+        <v>28</v>
+      </c>
+      <c r="C115" t="s">
+        <v>29</v>
+      </c>
+      <c r="D115" t="s">
+        <v>60</v>
+      </c>
+      <c r="E115" t="s">
+        <v>36</v>
+      </c>
+      <c r="F115">
+        <v>6</v>
+      </c>
+      <c r="G115">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>39</v>
+      </c>
+      <c r="B116" t="s">
+        <v>28</v>
+      </c>
+      <c r="C116" t="s">
+        <v>29</v>
+      </c>
+      <c r="D116" t="s">
+        <v>60</v>
+      </c>
+      <c r="E116" t="s">
+        <v>34</v>
+      </c>
+      <c r="F116">
+        <v>9</v>
+      </c>
+      <c r="G116">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>39</v>
+      </c>
+      <c r="B117" t="s">
+        <v>28</v>
+      </c>
+      <c r="C117" t="s">
+        <v>29</v>
+      </c>
+      <c r="D117" t="s">
+        <v>60</v>
+      </c>
+      <c r="E117" t="s">
+        <v>33</v>
+      </c>
+      <c r="F117">
         <v>8.5</v>
       </c>
-      <c r="H112">
-        <v>1</v>
-      </c>
-      <c r="K112">
-        <v>8.15</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>11</v>
-      </c>
-      <c r="B113" t="s">
-        <v>12</v>
-      </c>
-      <c r="C113" t="s">
-        <v>13</v>
-      </c>
-      <c r="D113" t="s">
-        <v>65</v>
-      </c>
-      <c r="E113" t="s">
-        <v>18</v>
-      </c>
-      <c r="F113">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="G113">
-        <v>9</v>
-      </c>
-      <c r="H113">
-        <v>0</v>
-      </c>
-      <c r="K113">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>27</v>
-      </c>
-      <c r="B114" t="s">
-        <v>28</v>
-      </c>
-      <c r="C114" t="s">
-        <v>29</v>
-      </c>
-      <c r="D114" t="s">
-        <v>66</v>
-      </c>
-      <c r="E114" t="s">
+      <c r="G117">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>39</v>
+      </c>
+      <c r="B118" t="s">
+        <v>28</v>
+      </c>
+      <c r="C118" t="s">
+        <v>29</v>
+      </c>
+      <c r="D118" t="s">
+        <v>60</v>
+      </c>
+      <c r="E118" t="s">
         <v>32</v>
       </c>
-      <c r="F114">
-        <v>0</v>
-      </c>
-      <c r="G114">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>55</v>
-      </c>
-      <c r="B115" t="s">
-        <v>20</v>
-      </c>
-      <c r="C115" t="s">
-        <v>56</v>
-      </c>
-      <c r="D115" t="s">
-        <v>67</v>
-      </c>
-      <c r="E115" t="s">
-        <v>26</v>
-      </c>
-      <c r="F115">
-        <v>17.8</v>
-      </c>
-      <c r="G115">
+      <c r="F118">
         <v>9.5</v>
       </c>
-      <c r="H115">
-        <v>0</v>
-      </c>
-      <c r="I115">
+      <c r="G118">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>39</v>
+      </c>
+      <c r="B119" t="s">
+        <v>28</v>
+      </c>
+      <c r="C119" t="s">
+        <v>29</v>
+      </c>
+      <c r="D119" t="s">
+        <v>60</v>
+      </c>
+      <c r="E119" t="s">
+        <v>37</v>
+      </c>
+      <c r="F119">
+        <v>9.25</v>
+      </c>
+      <c r="G119">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>39</v>
+      </c>
+      <c r="B120" t="s">
+        <v>28</v>
+      </c>
+      <c r="C120" t="s">
+        <v>29</v>
+      </c>
+      <c r="D120" t="s">
+        <v>60</v>
+      </c>
+      <c r="E120" t="s">
+        <v>35</v>
+      </c>
+      <c r="F120">
         <v>9.5</v>
       </c>
-      <c r="J115">
-        <v>0</v>
-      </c>
-      <c r="K115">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>55</v>
-      </c>
-      <c r="B116" t="s">
-        <v>20</v>
-      </c>
-      <c r="C116" t="s">
-        <v>56</v>
-      </c>
-      <c r="D116" t="s">
-        <v>67</v>
-      </c>
-      <c r="E116" t="s">
-        <v>23</v>
-      </c>
-      <c r="F116">
-        <v>17.5</v>
-      </c>
-      <c r="G116">
-        <v>10</v>
-      </c>
-      <c r="H116">
-        <v>1</v>
-      </c>
-      <c r="I116">
-        <v>4</v>
-      </c>
-      <c r="J116">
-        <v>5</v>
-      </c>
-      <c r="K116">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>55</v>
-      </c>
-      <c r="B117" t="s">
-        <v>20</v>
-      </c>
-      <c r="C117" t="s">
-        <v>56</v>
-      </c>
-      <c r="D117" t="s">
-        <v>67</v>
-      </c>
-      <c r="E117" t="s">
-        <v>24</v>
-      </c>
-      <c r="F117">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="G117">
-        <v>9</v>
-      </c>
-      <c r="H117">
-        <v>0</v>
-      </c>
-      <c r="I117">
-        <v>4</v>
-      </c>
-      <c r="J117">
-        <v>5</v>
-      </c>
-      <c r="K117">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>55</v>
-      </c>
-      <c r="B118" t="s">
-        <v>20</v>
-      </c>
-      <c r="C118" t="s">
-        <v>56</v>
-      </c>
-      <c r="D118" t="s">
-        <v>67</v>
-      </c>
-      <c r="E118" t="s">
-        <v>25</v>
-      </c>
-      <c r="F118">
-        <v>18</v>
-      </c>
-      <c r="G118">
-        <v>9</v>
-      </c>
-      <c r="H118">
-        <v>0</v>
-      </c>
-      <c r="I118">
-        <v>4</v>
-      </c>
-      <c r="J118">
-        <v>5</v>
-      </c>
-      <c r="K118">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>19</v>
-      </c>
-      <c r="B119" t="s">
-        <v>20</v>
-      </c>
-      <c r="C119" t="s">
-        <v>21</v>
-      </c>
-      <c r="D119" t="s">
-        <v>68</v>
-      </c>
-      <c r="E119" t="s">
-        <v>23</v>
-      </c>
-      <c r="F119">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="G119">
-        <v>9</v>
-      </c>
-      <c r="H119">
-        <v>0</v>
-      </c>
-      <c r="I119">
-        <v>4</v>
-      </c>
-      <c r="J119">
-        <v>5</v>
-      </c>
-      <c r="K119">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>19</v>
-      </c>
-      <c r="B120" t="s">
-        <v>20</v>
-      </c>
-      <c r="C120" t="s">
-        <v>21</v>
-      </c>
-      <c r="D120" t="s">
-        <v>68</v>
-      </c>
-      <c r="E120" t="s">
-        <v>24</v>
-      </c>
-      <c r="F120">
-        <v>16.75</v>
-      </c>
       <c r="G120">
-        <v>9</v>
-      </c>
-      <c r="H120">
-        <v>0</v>
-      </c>
-      <c r="I120">
-        <v>4</v>
-      </c>
-      <c r="J120">
-        <v>5</v>
-      </c>
-      <c r="K120">
-        <v>7.75</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B121" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C121" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D121" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E121" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F121">
-        <v>17.399999999999999</v>
+        <v>8</v>
       </c>
       <c r="G121">
-        <v>9</v>
-      </c>
-      <c r="H121">
-        <v>0</v>
-      </c>
-      <c r="I121">
-        <v>4</v>
-      </c>
-      <c r="J121">
-        <v>5</v>
-      </c>
-      <c r="K121">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B122" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C122" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D122" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E122" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F122">
-        <v>18.600000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="G122">
-        <v>9</v>
-      </c>
-      <c r="H122">
-        <v>0</v>
-      </c>
-      <c r="I122">
-        <v>9</v>
-      </c>
-      <c r="J122">
-        <v>0</v>
-      </c>
-      <c r="K122">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>39</v>
       </c>
@@ -4257,19 +4545,19 @@
         <v>29</v>
       </c>
       <c r="D123" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E123" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F123">
-        <v>9.6999999999999993</v>
+        <v>8.5</v>
       </c>
       <c r="G123">
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>39</v>
       </c>
@@ -4280,19 +4568,19 @@
         <v>29</v>
       </c>
       <c r="D124" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E124" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F124">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="G124">
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>39</v>
       </c>
@@ -4303,19 +4591,19 @@
         <v>29</v>
       </c>
       <c r="D125" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E125" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F125">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G125">
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>39</v>
       </c>
@@ -4326,19 +4614,19 @@
         <v>29</v>
       </c>
       <c r="D126" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E126" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F126">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="G126">
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>39</v>
       </c>
@@ -4349,7 +4637,7 @@
         <v>29</v>
       </c>
       <c r="D127" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E127" t="s">
         <v>37</v>
@@ -4361,7 +4649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>39</v>
       </c>
@@ -4372,19 +4660,19 @@
         <v>29</v>
       </c>
       <c r="D128" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E128" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F128">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="G128">
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>39</v>
       </c>
@@ -4395,19 +4683,19 @@
         <v>29</v>
       </c>
       <c r="D129" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E129" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F129">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="G129">
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>39</v>
       </c>
@@ -4421,786 +4709,570 @@
         <v>69</v>
       </c>
       <c r="E130" t="s">
+        <v>31</v>
+      </c>
+      <c r="F130">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G130">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>39</v>
+      </c>
+      <c r="B131" t="s">
+        <v>28</v>
+      </c>
+      <c r="C131" t="s">
+        <v>29</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" t="s">
+        <v>36</v>
+      </c>
+      <c r="F131">
+        <v>9.5</v>
+      </c>
+      <c r="G131">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>39</v>
+      </c>
+      <c r="B132" t="s">
+        <v>28</v>
+      </c>
+      <c r="C132" t="s">
+        <v>29</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" t="s">
+        <v>34</v>
+      </c>
+      <c r="F132">
+        <v>8</v>
+      </c>
+      <c r="G132">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>39</v>
+      </c>
+      <c r="B133" t="s">
+        <v>28</v>
+      </c>
+      <c r="C133" t="s">
+        <v>29</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" t="s">
+        <v>33</v>
+      </c>
+      <c r="F133">
+        <v>9.5</v>
+      </c>
+      <c r="G133">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>39</v>
+      </c>
+      <c r="B134" t="s">
+        <v>28</v>
+      </c>
+      <c r="C134" t="s">
+        <v>29</v>
+      </c>
+      <c r="D134" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" t="s">
+        <v>37</v>
+      </c>
+      <c r="F134">
+        <v>9.25</v>
+      </c>
+      <c r="G134">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>39</v>
+      </c>
+      <c r="B135" t="s">
+        <v>28</v>
+      </c>
+      <c r="C135" t="s">
+        <v>29</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" t="s">
+        <v>32</v>
+      </c>
+      <c r="F135">
+        <v>10</v>
+      </c>
+      <c r="G135">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>39</v>
+      </c>
+      <c r="B136" t="s">
+        <v>28</v>
+      </c>
+      <c r="C136" t="s">
+        <v>29</v>
+      </c>
+      <c r="D136" t="s">
+        <v>69</v>
+      </c>
+      <c r="E136" t="s">
+        <v>35</v>
+      </c>
+      <c r="F136">
+        <v>9.5</v>
+      </c>
+      <c r="G136">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>39</v>
+      </c>
+      <c r="B137" t="s">
+        <v>28</v>
+      </c>
+      <c r="C137" t="s">
+        <v>29</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" t="s">
         <v>38</v>
       </c>
-      <c r="F130">
-        <v>10</v>
-      </c>
-      <c r="G130">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>48</v>
-      </c>
-      <c r="B131" t="s">
-        <v>20</v>
-      </c>
-      <c r="C131" t="s">
-        <v>49</v>
-      </c>
-      <c r="D131" t="s">
-        <v>70</v>
-      </c>
-      <c r="E131" t="s">
-        <v>26</v>
-      </c>
-      <c r="F131">
-        <v>18.350000000000001</v>
-      </c>
-      <c r="G131">
-        <v>10</v>
-      </c>
-      <c r="H131">
-        <v>0</v>
-      </c>
-      <c r="I131">
-        <v>10</v>
-      </c>
-      <c r="J131">
-        <v>0</v>
-      </c>
-      <c r="K131">
-        <v>8.35</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>48</v>
-      </c>
-      <c r="B132" t="s">
-        <v>20</v>
-      </c>
-      <c r="C132" t="s">
-        <v>49</v>
-      </c>
-      <c r="D132" t="s">
-        <v>70</v>
-      </c>
-      <c r="E132" t="s">
-        <v>23</v>
-      </c>
-      <c r="F132">
-        <v>15.85</v>
-      </c>
-      <c r="G132">
+      <c r="F137">
+        <v>10</v>
+      </c>
+      <c r="G137">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>39</v>
+      </c>
+      <c r="B138" t="s">
+        <v>28</v>
+      </c>
+      <c r="C138" t="s">
+        <v>29</v>
+      </c>
+      <c r="D138" t="s">
+        <v>76</v>
+      </c>
+      <c r="E138" t="s">
+        <v>31</v>
+      </c>
+      <c r="F138">
+        <v>9.5</v>
+      </c>
+      <c r="G138">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>39</v>
+      </c>
+      <c r="B139" t="s">
+        <v>28</v>
+      </c>
+      <c r="C139" t="s">
+        <v>29</v>
+      </c>
+      <c r="D139" t="s">
+        <v>76</v>
+      </c>
+      <c r="E139" t="s">
+        <v>34</v>
+      </c>
+      <c r="F139">
+        <v>9</v>
+      </c>
+      <c r="G139">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>39</v>
+      </c>
+      <c r="B140" t="s">
+        <v>28</v>
+      </c>
+      <c r="C140" t="s">
+        <v>29</v>
+      </c>
+      <c r="D140" t="s">
+        <v>76</v>
+      </c>
+      <c r="E140" t="s">
+        <v>33</v>
+      </c>
+      <c r="F140">
+        <v>10</v>
+      </c>
+      <c r="G140">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>39</v>
+      </c>
+      <c r="B141" t="s">
+        <v>28</v>
+      </c>
+      <c r="C141" t="s">
+        <v>29</v>
+      </c>
+      <c r="D141" t="s">
+        <v>76</v>
+      </c>
+      <c r="E141" t="s">
+        <v>37</v>
+      </c>
+      <c r="F141">
+        <v>9</v>
+      </c>
+      <c r="G141">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>39</v>
+      </c>
+      <c r="B142" t="s">
+        <v>28</v>
+      </c>
+      <c r="C142" t="s">
+        <v>29</v>
+      </c>
+      <c r="D142" t="s">
+        <v>76</v>
+      </c>
+      <c r="E142" t="s">
+        <v>32</v>
+      </c>
+      <c r="F142">
+        <v>9.5</v>
+      </c>
+      <c r="G142">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>39</v>
+      </c>
+      <c r="B143" t="s">
+        <v>28</v>
+      </c>
+      <c r="C143" t="s">
+        <v>29</v>
+      </c>
+      <c r="D143" t="s">
+        <v>76</v>
+      </c>
+      <c r="E143" t="s">
+        <v>35</v>
+      </c>
+      <c r="F143">
+        <v>9.1</v>
+      </c>
+      <c r="G143">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>39</v>
+      </c>
+      <c r="B144" t="s">
+        <v>28</v>
+      </c>
+      <c r="C144" t="s">
+        <v>29</v>
+      </c>
+      <c r="D144" t="s">
+        <v>76</v>
+      </c>
+      <c r="E144" t="s">
+        <v>36</v>
+      </c>
+      <c r="F144">
         <v>8</v>
       </c>
-      <c r="H132">
-        <v>0</v>
-      </c>
-      <c r="I132">
-        <v>3</v>
-      </c>
-      <c r="J132">
-        <v>5</v>
-      </c>
-      <c r="K132">
-        <v>7.85</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>48</v>
-      </c>
-      <c r="B133" t="s">
-        <v>20</v>
-      </c>
-      <c r="C133" t="s">
-        <v>49</v>
-      </c>
-      <c r="D133" t="s">
-        <v>70</v>
-      </c>
-      <c r="E133" t="s">
-        <v>24</v>
-      </c>
-      <c r="F133">
-        <v>19.3</v>
-      </c>
-      <c r="G133">
-        <v>10</v>
-      </c>
-      <c r="H133">
-        <v>1</v>
-      </c>
-      <c r="I133">
-        <v>4</v>
-      </c>
-      <c r="J133">
-        <v>5</v>
-      </c>
-      <c r="K133">
+      <c r="G144">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>39</v>
+      </c>
+      <c r="B145" t="s">
+        <v>28</v>
+      </c>
+      <c r="C145" t="s">
+        <v>29</v>
+      </c>
+      <c r="D145" t="s">
+        <v>76</v>
+      </c>
+      <c r="E145" t="s">
+        <v>38</v>
+      </c>
+      <c r="F145">
+        <v>8.5</v>
+      </c>
+      <c r="G145">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>27</v>
+      </c>
+      <c r="B146" t="s">
+        <v>28</v>
+      </c>
+      <c r="C146" t="s">
+        <v>29</v>
+      </c>
+      <c r="D146" t="s">
+        <v>30</v>
+      </c>
+      <c r="E146" t="s">
+        <v>31</v>
+      </c>
+      <c r="F146">
+        <v>9.6</v>
+      </c>
+      <c r="G146">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>27</v>
+      </c>
+      <c r="B147" t="s">
+        <v>28</v>
+      </c>
+      <c r="C147" t="s">
+        <v>29</v>
+      </c>
+      <c r="D147" t="s">
+        <v>30</v>
+      </c>
+      <c r="E147" t="s">
+        <v>32</v>
+      </c>
+      <c r="F147">
+        <v>10</v>
+      </c>
+      <c r="G147">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>27</v>
+      </c>
+      <c r="B148" t="s">
+        <v>28</v>
+      </c>
+      <c r="C148" t="s">
+        <v>29</v>
+      </c>
+      <c r="D148" t="s">
+        <v>30</v>
+      </c>
+      <c r="E148" t="s">
+        <v>33</v>
+      </c>
+      <c r="F148">
+        <v>9.5</v>
+      </c>
+      <c r="G148">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>27</v>
+      </c>
+      <c r="B149" t="s">
+        <v>28</v>
+      </c>
+      <c r="C149" t="s">
+        <v>29</v>
+      </c>
+      <c r="D149" t="s">
+        <v>30</v>
+      </c>
+      <c r="E149" t="s">
+        <v>34</v>
+      </c>
+      <c r="F149">
+        <v>9.5</v>
+      </c>
+      <c r="G149">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>27</v>
+      </c>
+      <c r="B150" t="s">
+        <v>28</v>
+      </c>
+      <c r="C150" t="s">
+        <v>29</v>
+      </c>
+      <c r="D150" t="s">
+        <v>30</v>
+      </c>
+      <c r="E150" t="s">
+        <v>35</v>
+      </c>
+      <c r="F150">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G150">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>27</v>
+      </c>
+      <c r="B151" t="s">
+        <v>28</v>
+      </c>
+      <c r="C151" t="s">
+        <v>29</v>
+      </c>
+      <c r="D151" t="s">
+        <v>30</v>
+      </c>
+      <c r="E151" t="s">
+        <v>36</v>
+      </c>
+      <c r="F151">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>48</v>
-      </c>
-      <c r="B134" t="s">
-        <v>20</v>
-      </c>
-      <c r="C134" t="s">
-        <v>49</v>
-      </c>
-      <c r="D134" t="s">
-        <v>70</v>
-      </c>
-      <c r="E134" t="s">
-        <v>25</v>
-      </c>
-      <c r="F134">
-        <v>18.3</v>
-      </c>
-      <c r="G134">
-        <v>10</v>
-      </c>
-      <c r="H134">
-        <v>1</v>
-      </c>
-      <c r="I134">
-        <v>4</v>
-      </c>
-      <c r="J134">
-        <v>5</v>
-      </c>
-      <c r="K134">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>43</v>
-      </c>
-      <c r="B135" t="s">
-        <v>20</v>
-      </c>
-      <c r="C135" t="s">
-        <v>21</v>
-      </c>
-      <c r="D135" t="s">
-        <v>71</v>
-      </c>
-      <c r="E135" t="s">
-        <v>23</v>
-      </c>
-      <c r="F135">
-        <v>17.95</v>
-      </c>
-      <c r="G135">
-        <v>9</v>
-      </c>
-      <c r="H135">
-        <v>0</v>
-      </c>
-      <c r="I135">
-        <v>4</v>
-      </c>
-      <c r="J135">
-        <v>5</v>
-      </c>
-      <c r="K135">
-        <v>8.9499999999999993</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>43</v>
-      </c>
-      <c r="B136" t="s">
-        <v>20</v>
-      </c>
-      <c r="C136" t="s">
-        <v>21</v>
-      </c>
-      <c r="D136" t="s">
-        <v>71</v>
-      </c>
-      <c r="E136" t="s">
-        <v>24</v>
-      </c>
-      <c r="F136">
-        <v>17.25</v>
-      </c>
-      <c r="G136">
-        <v>9</v>
-      </c>
-      <c r="H136">
-        <v>0</v>
-      </c>
-      <c r="I136">
-        <v>4</v>
-      </c>
-      <c r="J136">
-        <v>5</v>
-      </c>
-      <c r="K136">
-        <v>8.25</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>43</v>
-      </c>
-      <c r="B137" t="s">
-        <v>20</v>
-      </c>
-      <c r="C137" t="s">
-        <v>21</v>
-      </c>
-      <c r="D137" t="s">
-        <v>71</v>
-      </c>
-      <c r="E137" t="s">
-        <v>25</v>
-      </c>
-      <c r="F137">
-        <v>17.7</v>
-      </c>
-      <c r="G137">
-        <v>9</v>
-      </c>
-      <c r="H137">
-        <v>1</v>
-      </c>
-      <c r="I137">
-        <v>3</v>
-      </c>
-      <c r="J137">
-        <v>5</v>
-      </c>
-      <c r="K137">
-        <v>8.6999999999999993</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>43</v>
-      </c>
-      <c r="B138" t="s">
-        <v>20</v>
-      </c>
-      <c r="C138" t="s">
-        <v>21</v>
-      </c>
-      <c r="D138" t="s">
-        <v>71</v>
-      </c>
-      <c r="E138" t="s">
-        <v>26</v>
-      </c>
-      <c r="F138">
-        <v>19</v>
-      </c>
-      <c r="G138">
+      <c r="G151">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>27</v>
+      </c>
+      <c r="B152" t="s">
+        <v>28</v>
+      </c>
+      <c r="C152" t="s">
+        <v>29</v>
+      </c>
+      <c r="D152" t="s">
+        <v>30</v>
+      </c>
+      <c r="E152" t="s">
+        <v>37</v>
+      </c>
+      <c r="F152">
         <v>9.5</v>
       </c>
-      <c r="H138">
-        <v>0</v>
-      </c>
-      <c r="I138">
-        <v>9.5</v>
-      </c>
-      <c r="J138">
-        <v>0</v>
-      </c>
-      <c r="K138">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>11</v>
-      </c>
-      <c r="B139" t="s">
-        <v>12</v>
-      </c>
-      <c r="C139" t="s">
-        <v>13</v>
-      </c>
-      <c r="D139" t="s">
-        <v>72</v>
-      </c>
-      <c r="E139" t="s">
-        <v>15</v>
-      </c>
-      <c r="F139">
-        <v>17.850000000000001</v>
-      </c>
-      <c r="G139">
-        <v>9</v>
-      </c>
-      <c r="H139">
-        <v>0</v>
-      </c>
-      <c r="K139">
-        <v>8.85</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>11</v>
-      </c>
-      <c r="B140" t="s">
-        <v>12</v>
-      </c>
-      <c r="C140" t="s">
-        <v>13</v>
-      </c>
-      <c r="D140" t="s">
-        <v>72</v>
-      </c>
-      <c r="E140" t="s">
-        <v>17</v>
-      </c>
-      <c r="F140">
-        <v>18.350000000000001</v>
-      </c>
-      <c r="G140">
-        <v>10</v>
-      </c>
-      <c r="H140">
-        <v>1</v>
-      </c>
-      <c r="K140">
-        <v>8.35</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>11</v>
-      </c>
-      <c r="B141" t="s">
-        <v>12</v>
-      </c>
-      <c r="C141" t="s">
-        <v>13</v>
-      </c>
-      <c r="D141" t="s">
-        <v>72</v>
-      </c>
-      <c r="E141" t="s">
-        <v>18</v>
-      </c>
-      <c r="F141">
-        <v>18.2</v>
-      </c>
-      <c r="G141">
-        <v>9</v>
-      </c>
-      <c r="H141">
-        <v>0</v>
-      </c>
-      <c r="K141">
-        <v>9.1999999999999993</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>11</v>
-      </c>
-      <c r="B142" t="s">
-        <v>12</v>
-      </c>
-      <c r="C142" t="s">
-        <v>13</v>
-      </c>
-      <c r="D142" t="s">
-        <v>72</v>
-      </c>
-      <c r="E142" t="s">
-        <v>16</v>
-      </c>
-      <c r="F142">
-        <v>16.649999999999999</v>
-      </c>
-      <c r="G142">
-        <v>10</v>
-      </c>
-      <c r="H142">
-        <v>1</v>
-      </c>
-      <c r="K142">
-        <v>6.65</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>11</v>
-      </c>
-      <c r="B143" t="s">
-        <v>12</v>
-      </c>
-      <c r="C143" t="s">
-        <v>13</v>
-      </c>
-      <c r="D143" t="s">
-        <v>73</v>
-      </c>
-      <c r="E143" t="s">
-        <v>15</v>
-      </c>
-      <c r="F143">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="G143">
-        <v>10</v>
-      </c>
-      <c r="H143">
-        <v>1</v>
-      </c>
-      <c r="K143">
+      <c r="G152">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>27</v>
+      </c>
+      <c r="B153" t="s">
+        <v>28</v>
+      </c>
+      <c r="C153" t="s">
+        <v>29</v>
+      </c>
+      <c r="D153" t="s">
+        <v>30</v>
+      </c>
+      <c r="E153" t="s">
+        <v>38</v>
+      </c>
+      <c r="F153">
+        <v>10</v>
+      </c>
+      <c r="G153">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>27</v>
+      </c>
+      <c r="B154" t="s">
+        <v>28</v>
+      </c>
+      <c r="C154" t="s">
+        <v>29</v>
+      </c>
+      <c r="D154" t="s">
+        <v>42</v>
+      </c>
+      <c r="E154" t="s">
+        <v>31</v>
+      </c>
+      <c r="F154">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>11</v>
-      </c>
-      <c r="B144" t="s">
-        <v>12</v>
-      </c>
-      <c r="C144" t="s">
-        <v>13</v>
-      </c>
-      <c r="D144" t="s">
-        <v>73</v>
-      </c>
-      <c r="E144" t="s">
-        <v>17</v>
-      </c>
-      <c r="F144">
-        <v>18.850000000000001</v>
-      </c>
-      <c r="G144">
-        <v>10</v>
-      </c>
-      <c r="H144">
-        <v>1</v>
-      </c>
-      <c r="K144">
-        <v>8.85</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>11</v>
-      </c>
-      <c r="B145" t="s">
-        <v>12</v>
-      </c>
-      <c r="C145" t="s">
-        <v>13</v>
-      </c>
-      <c r="D145" t="s">
-        <v>73</v>
-      </c>
-      <c r="E145" t="s">
-        <v>18</v>
-      </c>
-      <c r="F145">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="G145">
-        <v>10</v>
-      </c>
-      <c r="H145">
-        <v>1</v>
-      </c>
-      <c r="K145">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>11</v>
-      </c>
-      <c r="B146" t="s">
-        <v>12</v>
-      </c>
-      <c r="C146" t="s">
-        <v>13</v>
-      </c>
-      <c r="D146" t="s">
-        <v>73</v>
-      </c>
-      <c r="E146" t="s">
-        <v>16</v>
-      </c>
-      <c r="F146">
-        <v>19.7</v>
-      </c>
-      <c r="G146">
-        <v>10</v>
-      </c>
-      <c r="H146">
-        <v>1</v>
-      </c>
-      <c r="K146">
-        <v>9.6999999999999993</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>48</v>
-      </c>
-      <c r="B147" t="s">
-        <v>20</v>
-      </c>
-      <c r="C147" t="s">
-        <v>49</v>
-      </c>
-      <c r="D147" t="s">
-        <v>74</v>
-      </c>
-      <c r="E147" t="s">
-        <v>26</v>
-      </c>
-      <c r="F147">
-        <v>19.05</v>
-      </c>
-      <c r="G147">
-        <v>10</v>
-      </c>
-      <c r="H147">
-        <v>0</v>
-      </c>
-      <c r="I147">
-        <v>10</v>
-      </c>
-      <c r="J147">
-        <v>0</v>
-      </c>
-      <c r="K147">
-        <v>9.0500000000000007</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>48</v>
-      </c>
-      <c r="B148" t="s">
-        <v>20</v>
-      </c>
-      <c r="C148" t="s">
-        <v>49</v>
-      </c>
-      <c r="D148" t="s">
-        <v>74</v>
-      </c>
-      <c r="E148" t="s">
-        <v>23</v>
-      </c>
-      <c r="F148">
-        <v>16.350000000000001</v>
-      </c>
-      <c r="G148">
-        <v>8</v>
-      </c>
-      <c r="H148">
-        <v>0</v>
-      </c>
-      <c r="I148">
-        <v>3</v>
-      </c>
-      <c r="J148">
-        <v>5</v>
-      </c>
-      <c r="K148">
-        <v>8.35</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>48</v>
-      </c>
-      <c r="B149" t="s">
-        <v>20</v>
-      </c>
-      <c r="C149" t="s">
-        <v>49</v>
-      </c>
-      <c r="D149" t="s">
-        <v>74</v>
-      </c>
-      <c r="E149" t="s">
-        <v>24</v>
-      </c>
-      <c r="F149">
-        <v>19</v>
-      </c>
-      <c r="G149">
-        <v>10</v>
-      </c>
-      <c r="H149">
-        <v>1</v>
-      </c>
-      <c r="I149">
-        <v>4</v>
-      </c>
-      <c r="J149">
-        <v>5</v>
-      </c>
-      <c r="K149">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>48</v>
-      </c>
-      <c r="B150" t="s">
-        <v>20</v>
-      </c>
-      <c r="C150" t="s">
-        <v>49</v>
-      </c>
-      <c r="D150" t="s">
-        <v>74</v>
-      </c>
-      <c r="E150" t="s">
-        <v>25</v>
-      </c>
-      <c r="F150">
-        <v>18.2</v>
-      </c>
-      <c r="G150">
-        <v>10</v>
-      </c>
-      <c r="H150">
-        <v>1</v>
-      </c>
-      <c r="I150">
-        <v>4</v>
-      </c>
-      <c r="J150">
-        <v>5</v>
-      </c>
-      <c r="K150">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>11</v>
-      </c>
-      <c r="B151" t="s">
-        <v>12</v>
-      </c>
-      <c r="C151" t="s">
-        <v>13</v>
-      </c>
-      <c r="D151" t="s">
-        <v>75</v>
-      </c>
-      <c r="E151" t="s">
-        <v>15</v>
-      </c>
-      <c r="F151">
-        <v>19.7</v>
-      </c>
-      <c r="G151">
-        <v>10</v>
-      </c>
-      <c r="H151">
-        <v>1</v>
-      </c>
-      <c r="K151">
-        <v>9.6999999999999993</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>11</v>
-      </c>
-      <c r="B152" t="s">
-        <v>12</v>
-      </c>
-      <c r="C152" t="s">
-        <v>13</v>
-      </c>
-      <c r="D152" t="s">
-        <v>75</v>
-      </c>
-      <c r="E152" t="s">
-        <v>17</v>
-      </c>
-      <c r="F152">
-        <v>19</v>
-      </c>
-      <c r="G152">
-        <v>10</v>
-      </c>
-      <c r="H152">
-        <v>1</v>
-      </c>
-      <c r="K152">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>11</v>
-      </c>
-      <c r="B153" t="s">
-        <v>12</v>
-      </c>
-      <c r="C153" t="s">
-        <v>13</v>
-      </c>
-      <c r="D153" t="s">
-        <v>75</v>
-      </c>
-      <c r="E153" t="s">
-        <v>18</v>
-      </c>
-      <c r="F153">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="G153">
-        <v>10</v>
-      </c>
-      <c r="H153">
-        <v>1</v>
-      </c>
-      <c r="K153">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>11</v>
-      </c>
-      <c r="B154" t="s">
-        <v>12</v>
-      </c>
-      <c r="C154" t="s">
-        <v>13</v>
-      </c>
-      <c r="D154" t="s">
-        <v>75</v>
-      </c>
-      <c r="E154" t="s">
-        <v>16</v>
-      </c>
-      <c r="F154">
-        <v>18.850000000000001</v>
-      </c>
       <c r="G154">
         <v>10</v>
       </c>
-      <c r="H154">
-        <v>1</v>
-      </c>
-      <c r="K154">
-        <v>8.85</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B155" t="s">
         <v>28</v>
@@ -5209,10 +5281,10 @@
         <v>29</v>
       </c>
       <c r="D155" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="E155" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F155">
         <v>9.5</v>
@@ -5221,9 +5293,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B156" t="s">
         <v>28</v>
@@ -5232,44 +5304,44 @@
         <v>29</v>
       </c>
       <c r="D156" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="E156" t="s">
+        <v>33</v>
+      </c>
+      <c r="F156">
+        <v>10</v>
+      </c>
+      <c r="G156">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>27</v>
+      </c>
+      <c r="B157" t="s">
+        <v>28</v>
+      </c>
+      <c r="C157" t="s">
+        <v>29</v>
+      </c>
+      <c r="D157" t="s">
+        <v>42</v>
+      </c>
+      <c r="E157" t="s">
         <v>34</v>
       </c>
-      <c r="F156">
+      <c r="F157">
         <v>9</v>
       </c>
-      <c r="G156">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>39</v>
-      </c>
-      <c r="B157" t="s">
-        <v>28</v>
-      </c>
-      <c r="C157" t="s">
-        <v>29</v>
-      </c>
-      <c r="D157" t="s">
-        <v>76</v>
-      </c>
-      <c r="E157" t="s">
-        <v>33</v>
-      </c>
-      <c r="F157">
-        <v>10</v>
-      </c>
       <c r="G157">
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B158" t="s">
         <v>28</v>
@@ -5278,21 +5350,21 @@
         <v>29</v>
       </c>
       <c r="D158" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="E158" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F158">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="G158">
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B159" t="s">
         <v>28</v>
@@ -5301,10 +5373,10 @@
         <v>29</v>
       </c>
       <c r="D159" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="E159" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F159">
         <v>9.5</v>
@@ -5313,9 +5385,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B160" t="s">
         <v>28</v>
@@ -5324,13 +5396,13 @@
         <v>29</v>
       </c>
       <c r="D160" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="E160" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F160">
-        <v>9.1</v>
+        <v>9.5</v>
       </c>
       <c r="G160">
         <v>10</v>
@@ -5338,7 +5410,7 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B161" t="s">
         <v>28</v>
@@ -5347,13 +5419,13 @@
         <v>29</v>
       </c>
       <c r="D161" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="E161" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F161">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G161">
         <v>10</v>
@@ -5361,7 +5433,7 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B162" t="s">
         <v>28</v>
@@ -5370,13 +5442,13 @@
         <v>29</v>
       </c>
       <c r="D162" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="E162" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F162">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="G162">
         <v>10</v>
@@ -5393,13 +5465,13 @@
         <v>29</v>
       </c>
       <c r="D163" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="E163" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F163">
-        <v>9.3000000000000007</v>
+        <v>9.5</v>
       </c>
       <c r="G163">
         <v>10</v>
@@ -5416,13 +5488,13 @@
         <v>29</v>
       </c>
       <c r="D164" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="E164" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F164">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="G164">
         <v>10</v>
@@ -5439,13 +5511,13 @@
         <v>29</v>
       </c>
       <c r="D165" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="E165" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F165">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="G165">
         <v>10</v>
@@ -5462,13 +5534,13 @@
         <v>29</v>
       </c>
       <c r="D166" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="E166" t="s">
         <v>34</v>
       </c>
       <c r="F166">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="G166">
         <v>10</v>
@@ -5485,13 +5557,13 @@
         <v>29</v>
       </c>
       <c r="D167" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="E167" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F167">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G167">
         <v>10</v>
@@ -5508,13 +5580,13 @@
         <v>29</v>
       </c>
       <c r="D168" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="E168" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F168">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="G168">
         <v>10</v>
@@ -5531,13 +5603,13 @@
         <v>29</v>
       </c>
       <c r="D169" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="E169" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F169">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="G169">
         <v>10</v>
@@ -5554,13 +5626,13 @@
         <v>29</v>
       </c>
       <c r="D170" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E170" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F170">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G170">
         <v>10</v>
@@ -5577,13 +5649,13 @@
         <v>29</v>
       </c>
       <c r="D171" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E171" t="s">
         <v>31</v>
       </c>
       <c r="F171">
-        <v>10</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="G171">
         <v>10</v>
@@ -5600,13 +5672,13 @@
         <v>29</v>
       </c>
       <c r="D172" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E172" t="s">
         <v>32</v>
       </c>
       <c r="F172">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G172">
         <v>10</v>
@@ -5623,13 +5695,13 @@
         <v>29</v>
       </c>
       <c r="D173" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E173" t="s">
         <v>33</v>
       </c>
       <c r="F173">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="G173">
         <v>10</v>
@@ -5646,13 +5718,13 @@
         <v>29</v>
       </c>
       <c r="D174" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E174" t="s">
         <v>34</v>
       </c>
       <c r="F174">
-        <v>9.5</v>
+        <v>6.25</v>
       </c>
       <c r="G174">
         <v>10</v>
@@ -5669,13 +5741,13 @@
         <v>29</v>
       </c>
       <c r="D175" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E175" t="s">
         <v>35</v>
       </c>
       <c r="F175">
-        <v>9.5</v>
+        <v>5</v>
       </c>
       <c r="G175">
         <v>10</v>
@@ -5692,19 +5764,19 @@
         <v>29</v>
       </c>
       <c r="D176" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E176" t="s">
         <v>36</v>
       </c>
       <c r="F176">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G176">
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>27</v>
       </c>
@@ -5715,19 +5787,19 @@
         <v>29</v>
       </c>
       <c r="D177" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E177" t="s">
         <v>37</v>
       </c>
       <c r="F177">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="G177">
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>27</v>
       </c>
@@ -5738,272 +5810,200 @@
         <v>29</v>
       </c>
       <c r="D178" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E178" t="s">
         <v>38</v>
       </c>
       <c r="F178">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G178">
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="B179" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C179" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="D179" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E179" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F179">
-        <v>18.850000000000001</v>
+        <v>10</v>
       </c>
       <c r="G179">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>27</v>
+      </c>
+      <c r="B180" t="s">
+        <v>28</v>
+      </c>
+      <c r="C180" t="s">
+        <v>29</v>
+      </c>
+      <c r="D180" t="s">
+        <v>78</v>
+      </c>
+      <c r="E180" t="s">
+        <v>32</v>
+      </c>
+      <c r="F180">
+        <v>10</v>
+      </c>
+      <c r="G180">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>27</v>
+      </c>
+      <c r="B181" t="s">
+        <v>28</v>
+      </c>
+      <c r="C181" t="s">
+        <v>29</v>
+      </c>
+      <c r="D181" t="s">
+        <v>78</v>
+      </c>
+      <c r="E181" t="s">
+        <v>33</v>
+      </c>
+      <c r="F181">
         <v>9.5</v>
       </c>
-      <c r="H179">
-        <v>0</v>
-      </c>
-      <c r="I179">
+      <c r="G181">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>27</v>
+      </c>
+      <c r="B182" t="s">
+        <v>28</v>
+      </c>
+      <c r="C182" t="s">
+        <v>29</v>
+      </c>
+      <c r="D182" t="s">
+        <v>78</v>
+      </c>
+      <c r="E182" t="s">
+        <v>34</v>
+      </c>
+      <c r="F182">
         <v>9.5</v>
       </c>
-      <c r="J179">
-        <v>0</v>
-      </c>
-      <c r="K179">
-        <v>9.35</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>55</v>
-      </c>
-      <c r="B180" t="s">
-        <v>20</v>
-      </c>
-      <c r="C180" t="s">
-        <v>56</v>
-      </c>
-      <c r="D180" t="s">
-        <v>79</v>
-      </c>
-      <c r="E180" t="s">
-        <v>23</v>
-      </c>
-      <c r="F180">
-        <v>16.649999999999999</v>
-      </c>
-      <c r="G180">
-        <v>10</v>
-      </c>
-      <c r="H180">
-        <v>1</v>
-      </c>
-      <c r="I180">
-        <v>4</v>
-      </c>
-      <c r="J180">
-        <v>5</v>
-      </c>
-      <c r="K180">
-        <v>6.65</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>55</v>
-      </c>
-      <c r="B181" t="s">
-        <v>20</v>
-      </c>
-      <c r="C181" t="s">
-        <v>56</v>
-      </c>
-      <c r="D181" t="s">
-        <v>79</v>
-      </c>
-      <c r="E181" t="s">
-        <v>24</v>
-      </c>
-      <c r="F181">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="G181">
-        <v>10</v>
-      </c>
-      <c r="H181">
-        <v>1</v>
-      </c>
-      <c r="I181">
-        <v>4</v>
-      </c>
-      <c r="J181">
-        <v>5</v>
-      </c>
-      <c r="K181">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>55</v>
-      </c>
-      <c r="B182" t="s">
-        <v>20</v>
-      </c>
-      <c r="C182" t="s">
-        <v>56</v>
-      </c>
-      <c r="D182" t="s">
-        <v>79</v>
-      </c>
-      <c r="E182" t="s">
-        <v>25</v>
-      </c>
-      <c r="F182">
-        <v>18.649999999999999</v>
-      </c>
       <c r="G182">
         <v>10</v>
       </c>
-      <c r="H182">
-        <v>1</v>
-      </c>
-      <c r="I182">
-        <v>4</v>
-      </c>
-      <c r="J182">
-        <v>5</v>
-      </c>
-      <c r="K182">
-        <v>8.65</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B183" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C183" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D183" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E183" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F183">
-        <v>19.75</v>
+        <v>9.5</v>
       </c>
       <c r="G183">
         <v>10</v>
       </c>
-      <c r="H183">
-        <v>1</v>
-      </c>
-      <c r="K183">
-        <v>9.75</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B184" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C184" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D184" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E184" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F184">
-        <v>18.649999999999999</v>
+        <v>10</v>
       </c>
       <c r="G184">
         <v>10</v>
       </c>
-      <c r="H184">
-        <v>1</v>
-      </c>
-      <c r="K184">
-        <v>8.65</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B185" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C185" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D185" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E185" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F185">
-        <v>19.2</v>
+        <v>10</v>
       </c>
       <c r="G185">
         <v>10</v>
       </c>
-      <c r="H185">
-        <v>1</v>
-      </c>
-      <c r="K185">
-        <v>9.1999999999999993</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B186" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C186" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D186" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E186" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F186">
-        <v>18.7</v>
+        <v>10</v>
       </c>
       <c r="G186">
-        <v>9</v>
-      </c>
-      <c r="H186">
-        <v>0</v>
-      </c>
-      <c r="K186">
-        <v>9.6999999999999993</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
